--- a/check sample work/christians samples 2021/TA/Christians TA samples compiled 2021.xlsx
+++ b/check sample work/christians samples 2021/TA/Christians TA samples compiled 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rye-Tech\Documents\R\rye-tech-home\2021-season-summary\check sample work\christians samples 2021\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07A22C-1148-4728-87F5-F9C677C067EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5C31A4-1BA6-4851-810B-41818613DE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2A57CFC7-A3BC-4562-B084-879118DEC932}"/>
+    <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{2A57CFC7-A3BC-4562-B084-879118DEC932}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>sample</t>
   </si>
@@ -220,13 +220,46 @@
   </si>
   <si>
     <t>T21-708-2</t>
+  </si>
+  <si>
+    <t>BaySTD2-1</t>
+  </si>
+  <si>
+    <t>BaySTD2-2</t>
+  </si>
+  <si>
+    <t>T16-719-3</t>
+  </si>
+  <si>
+    <t>T8-714-3</t>
+  </si>
+  <si>
+    <t>T21-714-1</t>
+  </si>
+  <si>
+    <t>T21-714-2</t>
+  </si>
+  <si>
+    <t>T21-714-3</t>
+  </si>
+  <si>
+    <t>T6-702-3</t>
+  </si>
+  <si>
+    <t>copied from above</t>
+  </si>
+  <si>
+    <t>copied from above; see below for calculation including last samples run of each day… may be a weird acclimation anomaly happening</t>
+  </si>
+  <si>
+    <t>copied from above, adding this data point to the calculation doesn't help…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,8 +267,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +284,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +357,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,26 +721,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3CE73F-FF4A-4643-BAC2-2EB7CBBA21AE}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:M5"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="3" customWidth="1"/>
     <col min="6" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -690,7 +795,7 @@
         <v>2910.6442085056501</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -704,7 +809,7 @@
         <v>2217.72322691925</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -717,7 +822,7 @@
       <c r="D4" s="6">
         <v>2296.9311178731</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="6">
         <f>AVERAGE(D4:D6)</f>
         <v>2305.3644123777535</v>
@@ -751,7 +856,7 @@
         <v>80.605511166080305</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -764,7 +869,7 @@
       <c r="D5" s="6">
         <v>2269.2783040470399</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -774,21 +879,30 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>44306</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>2332.18478361088</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>2349.8838152131202</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -834,7 +948,7 @@
         <v>15.531604509610133</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -848,7 +962,7 @@
         <v>2325.6140058686801</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -862,7 +976,7 @@
         <v>2310.08240135907</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -908,7 +1022,7 @@
         <v>5.2861649916699207</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -922,7 +1036,7 @@
         <v>2318.6413375366601</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -936,7 +1050,7 @@
         <v>2027.6002279962599</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -950,7 +1064,7 @@
         <v>2279.0445390989298</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -964,7 +1078,7 @@
         <v>2268.9398458508299</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -978,7 +1092,7 @@
         <v>2074.2815254131001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1024,7 +1138,7 @@
         <v>4.0421377786401536</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1038,7 +1152,7 @@
         <v>2321.41210444424</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1084,7 +1198,7 @@
         <v>21.011461368979781</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1098,7 +1212,7 @@
         <v>2273.5108884522401</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1144,7 +1258,7 @@
         <v>6.3693382280998776</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1158,7 +1272,7 @@
         <v>2300.3779023253701</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1204,7 +1318,7 @@
         <v>4.6440962132301138</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1218,7 +1332,7 @@
         <v>2313.6953672945901</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1346,7 @@
         <v>2071.5652452823801</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1361,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -1261,7 +1375,7 @@
         <v>2254.9301909469</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1275,7 +1389,7 @@
         <v>2009.76651707358</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -1288,7 +1402,7 @@
       <c r="D28" s="6">
         <v>2418.04353996089</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="6">
         <f>AVERAGE(D28:D29)</f>
         <v>2367.967458981575</v>
@@ -1322,7 +1436,7 @@
         <v>100.15216195863013</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1449,7 @@
       <c r="D29" s="6">
         <v>2317.8913780022599</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1345,7 +1459,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1391,7 +1505,7 @@
         <v>52.638960051390313</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1405,7 +1519,7 @@
         <v>2281.3782784252098</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1451,7 +1565,7 @@
         <v>3.0908338551803354</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1465,7 +1579,7 @@
         <v>2287.9550811459599</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1511,7 +1625,7 @@
         <v>0.17546897555985197</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1525,7 +1639,7 @@
         <v>2283.0121022005201</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1653,7 @@
         <v>1989.3161099464901</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1553,7 +1667,7 @@
         <v>2284.2971080829302</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -1567,7 +1681,7 @@
         <v>2258.2001164065</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1581,7 +1695,7 @@
         <v>1863.6783774078101</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>46</v>
       </c>
@@ -1594,7 +1708,7 @@
       <c r="D40" s="6">
         <v>2216.9841174963999</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="6">
         <f>AVERAGE(D40:D41)</f>
         <v>2253.9302556155449</v>
@@ -1628,7 +1742,7 @@
         <v>73.892276238289924</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
@@ -1641,7 +1755,7 @@
       <c r="D41" s="6">
         <v>2290.8763937346898</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1651,7 +1765,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -1697,7 +1811,7 @@
         <v>4.0454706186401381</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -1711,7 +1825,7 @@
         <v>2263.2326726756801</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1725,7 +1839,7 @@
         <v>1652.86862150455</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1771,7 +1885,7 @@
         <v>0.52957853455018267</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -1785,7 +1899,7 @@
         <v>2256.4888604072798</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -1831,7 +1945,7 @@
         <v>3.5129784075102179</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1959,7 @@
         <v>2254.4320862739801</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -1859,7 +1973,7 @@
         <v>1688.41855227112</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -1873,7 +1987,7 @@
         <v>2284.3910952564502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -1887,7 +2001,7 @@
         <v>2260.5727782556</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,7 +2015,7 @@
         <v>1586.91235962838</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +2028,7 @@
       <c r="D53" s="6">
         <v>2402.66599908232</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="6">
         <f>AVERAGE(D53:D54)</f>
         <v>2363.5014469315047</v>
@@ -1948,30 +2062,30 @@
         <v>78.329104301630196</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="10">
         <v>44335</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="9">
         <v>2300.7800619793502</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="9">
         <v>2324.3368947806898</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E54" s="12"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -2017,7 +2131,7 @@
         <v>4.5545797621298334</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2031,7 +2145,7 @@
         <v>2302.96547543923</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -2077,7 +2191,7 @@
         <v>1.7241466779901202</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -2091,7 +2205,7 @@
         <v>2293.4616496128001</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,7 +2219,7 @@
         <v>1464.32775647991</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -2151,7 +2265,7 @@
         <v>2.5774230811503003</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -2163,6 +2277,734 @@
       </c>
       <c r="D61" s="1">
         <v>2249.0371492558802</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1282.0911771297899</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1282.0911771297899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2260.8897208861899</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2286.7449288636899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2231.0035244408</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2254.6361380571502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1253.12244399984</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1253.12244399984</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="7">
+        <v>44356</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2326.79680136756</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2388.28059647075</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="6">
+        <f>AVERAGE(D66:D68)</f>
+        <v>2343.9047958890369</v>
+      </c>
+      <c r="G66" s="6">
+        <f>_xlfn.STDEV.S(D66:D68)</f>
+        <v>48.244847361799259</v>
+      </c>
+      <c r="H66" s="6">
+        <f>2*G66</f>
+        <v>96.489694723598518</v>
+      </c>
+      <c r="I66" s="6">
+        <f>G66/F66</f>
+        <v>2.0583108770635933E-2</v>
+      </c>
+      <c r="J66" s="8">
+        <f>I66</f>
+        <v>2.0583108770635933E-2</v>
+      </c>
+      <c r="K66" s="6">
+        <f>MIN(D66:D68)</f>
+        <v>2292.5508787461599</v>
+      </c>
+      <c r="L66" s="6">
+        <f>MAX(D66:D68)</f>
+        <v>2388.28059647075</v>
+      </c>
+      <c r="M66" s="6">
+        <f>L66-K66</f>
+        <v>95.729717724590046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="7">
+        <v>44356</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2329.0032371468801</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2350.8829124501999</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="15">
+        <v>44356</v>
+      </c>
+      <c r="C68" s="14">
+        <v>2269.2716409028999</v>
+      </c>
+      <c r="D68" s="14">
+        <v>2292.5508787461599</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="15">
+        <v>44328</v>
+      </c>
+      <c r="C69" s="14">
+        <v>2267.5799306727399</v>
+      </c>
+      <c r="D69" s="14">
+        <v>2290.8763937346898</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="14">
+        <f>AVERAGE(D66:D69)</f>
+        <v>2330.6476953504502</v>
+      </c>
+      <c r="G69" s="14">
+        <f>_xlfn.STDEV.S(D66:D69)</f>
+        <v>47.483818893769715</v>
+      </c>
+      <c r="H69" s="14">
+        <f>2*G69</f>
+        <v>94.967637787539431</v>
+      </c>
+      <c r="I69" s="14">
+        <f>G69/F69</f>
+        <v>2.0373657927149628E-2</v>
+      </c>
+      <c r="J69" s="17">
+        <f>I69</f>
+        <v>2.0373657927149628E-2</v>
+      </c>
+      <c r="K69" s="14">
+        <f>MIN(D66:D69)</f>
+        <v>2290.8763937346898</v>
+      </c>
+      <c r="L69" s="14">
+        <f>MAX(D66:D69)</f>
+        <v>2388.28059647075</v>
+      </c>
+      <c r="M69" s="14">
+        <f>L69-K69</f>
+        <v>97.404202736060142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2299.5908509404499</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2322.7470947360698</v>
+      </c>
+      <c r="F70" s="1">
+        <f>AVERAGE(D70:D72)</f>
+        <v>2323.5884288037964</v>
+      </c>
+      <c r="G70" s="1">
+        <f>_xlfn.STDEV.S(D70:D72)</f>
+        <v>1.3135328749142947</v>
+      </c>
+      <c r="H70" s="1">
+        <f>2*G70</f>
+        <v>2.6270657498285894</v>
+      </c>
+      <c r="I70" s="1">
+        <f>G70/F70</f>
+        <v>5.6530358760243651E-4</v>
+      </c>
+      <c r="J70" s="4">
+        <f>I70</f>
+        <v>5.6530358760243651E-4</v>
+      </c>
+      <c r="K70" s="1">
+        <f>MIN(D70:D72)</f>
+        <v>2322.7470947360698</v>
+      </c>
+      <c r="L70" s="1">
+        <f>MAX(D70:D72)</f>
+        <v>2325.1020214313498</v>
+      </c>
+      <c r="M70" s="1">
+        <f>L70-K70</f>
+        <v>2.3549266952800281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2300.80332507719</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2325.1020214313498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2299.0965355468402</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2322.9161702439701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="10">
+        <v>44335</v>
+      </c>
+      <c r="C73" s="9">
+        <v>2300.7800619793502</v>
+      </c>
+      <c r="D73" s="9">
+        <v>2324.3368947806898</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="9">
+        <f>AVERAGE(D70:D73)</f>
+        <v>2323.77554529802</v>
+      </c>
+      <c r="G73" s="9">
+        <f>_xlfn.STDEV.S(D70:D73)</f>
+        <v>1.1359120000959995</v>
+      </c>
+      <c r="H73" s="9">
+        <f>2*G73</f>
+        <v>2.2718240001919989</v>
+      </c>
+      <c r="I73" s="9">
+        <f>G73/F73</f>
+        <v>4.8882173770802841E-4</v>
+      </c>
+      <c r="J73" s="13">
+        <f>I73</f>
+        <v>4.8882173770802841E-4</v>
+      </c>
+      <c r="K73" s="9">
+        <f>MIN(D70:D73)</f>
+        <v>2322.7470947360698</v>
+      </c>
+      <c r="L73" s="9">
+        <f>MAX(D70:D73)</f>
+        <v>2325.1020214313498</v>
+      </c>
+      <c r="M73" s="9">
+        <f>L73-K73</f>
+        <v>2.3549266952800281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2282.5460830258598</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2307.06003584158</v>
+      </c>
+      <c r="F74" s="1">
+        <f>AVERAGE(D74:D76)</f>
+        <v>2306.9013871085535</v>
+      </c>
+      <c r="G74" s="1">
+        <f>_xlfn.STDEV.S(D74:D76)</f>
+        <v>1.1922017021810971</v>
+      </c>
+      <c r="H74" s="1">
+        <f>2*G74</f>
+        <v>2.3844034043621942</v>
+      </c>
+      <c r="I74" s="1">
+        <f>G74/F74</f>
+        <v>5.1679786090700242E-4</v>
+      </c>
+      <c r="J74" s="4">
+        <f>I74</f>
+        <v>5.1679786090700242E-4</v>
+      </c>
+      <c r="K74" s="1">
+        <f>MIN(D74:D76)</f>
+        <v>2305.6378043946702</v>
+      </c>
+      <c r="L74" s="1">
+        <f>MAX(D74:D76)</f>
+        <v>2308.00632108941</v>
+      </c>
+      <c r="M74" s="1">
+        <f>L74-K74</f>
+        <v>2.3685166947398102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2281.12861430166</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2305.6378043946702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2284.77788569108</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2308.00632108941</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2294.3269056540098</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2313.3062469020902</v>
+      </c>
+      <c r="F77" s="1">
+        <f>AVERAGE(D77:D79)</f>
+        <v>2315.1233794104032</v>
+      </c>
+      <c r="G77" s="1">
+        <f>_xlfn.STDEV.S(D77:D79)</f>
+        <v>3.4527000862124888</v>
+      </c>
+      <c r="H77" s="1">
+        <f>2*G77</f>
+        <v>6.9054001724249776</v>
+      </c>
+      <c r="I77" s="1">
+        <f>G77/F77</f>
+        <v>1.4913676380788805E-3</v>
+      </c>
+      <c r="J77" s="4">
+        <f>I77</f>
+        <v>1.4913676380788805E-3</v>
+      </c>
+      <c r="K77" s="1">
+        <f>MIN(D77:D79)</f>
+        <v>2312.9587291133298</v>
+      </c>
+      <c r="L77" s="1">
+        <f>MAX(D77:D79)</f>
+        <v>2319.1051622157902</v>
+      </c>
+      <c r="M77" s="1">
+        <f>L77-K77</f>
+        <v>6.146433102460378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2300.3023019523998</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2319.1051622157902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2292.3116146153802</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2312.9587291133298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="10">
+        <v>44321</v>
+      </c>
+      <c r="C80" s="9">
+        <v>2297.7711188746298</v>
+      </c>
+      <c r="D80" s="9">
+        <v>2317.8913780022599</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" s="9">
+        <f>AVERAGE(D77:D80)</f>
+        <v>2315.8153790583674</v>
+      </c>
+      <c r="G80" s="9">
+        <f>_xlfn.STDEV.S(D77:D80)</f>
+        <v>3.1405221393930236</v>
+      </c>
+      <c r="H80" s="9">
+        <f>2*G80</f>
+        <v>6.2810442787860472</v>
+      </c>
+      <c r="I80" s="9">
+        <f>G80/F80</f>
+        <v>1.3561193900828096E-3</v>
+      </c>
+      <c r="J80" s="13">
+        <f>I80</f>
+        <v>1.3561193900828096E-3</v>
+      </c>
+      <c r="K80" s="9">
+        <f>MIN(D77:D80)</f>
+        <v>2312.9587291133298</v>
+      </c>
+      <c r="L80" s="9">
+        <f>MAX(D77:D80)</f>
+        <v>2319.1051622157902</v>
+      </c>
+      <c r="M80" s="9">
+        <f>L80-K80</f>
+        <v>6.146433102460378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2321.2838337913399</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2337.41163133397</v>
+      </c>
+      <c r="F81" s="1">
+        <f>AVERAGE(D81:D83)</f>
+        <v>2334.3122576200931</v>
+      </c>
+      <c r="G81" s="1">
+        <f>_xlfn.STDEV.S(D81:D83)</f>
+        <v>4.9582958770513681</v>
+      </c>
+      <c r="H81" s="1">
+        <f>2*G81</f>
+        <v>9.9165917541027362</v>
+      </c>
+      <c r="I81" s="1">
+        <f>G81/F81</f>
+        <v>2.1240928075777279E-3</v>
+      </c>
+      <c r="J81" s="4">
+        <f>I81</f>
+        <v>2.1240928075777279E-3</v>
+      </c>
+      <c r="K81" s="1">
+        <f>MIN(D81:D83)</f>
+        <v>2328.5936248603298</v>
+      </c>
+      <c r="L81" s="1">
+        <f>MAX(D81:D83)</f>
+        <v>2337.41163133397</v>
+      </c>
+      <c r="M81" s="1">
+        <f>L81-K81</f>
+        <v>8.8180064736402528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2320.25500233517</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2336.9315166659799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44356</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2312.12020282716</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2328.5936248603298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="22">
+        <v>44306</v>
+      </c>
+      <c r="C84" s="21">
+        <v>2332.18478361088</v>
+      </c>
+      <c r="D84" s="21">
+        <v>2349.8838152131202</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" s="21">
+        <f>AVERAGE(D81:D84)</f>
+        <v>2338.2051470183496</v>
+      </c>
+      <c r="G84" s="21">
+        <f>_xlfn.STDEV.S(D81:D84)</f>
+        <v>8.7754287723067304</v>
+      </c>
+      <c r="H84" s="21">
+        <f>2*G84</f>
+        <v>17.550857544613461</v>
+      </c>
+      <c r="I84" s="21">
+        <f>G84/F84</f>
+        <v>3.7530619515986647E-3</v>
+      </c>
+      <c r="J84" s="24">
+        <f>I84</f>
+        <v>3.7530619515986647E-3</v>
+      </c>
+      <c r="K84" s="21">
+        <f>MIN(D81:D84)</f>
+        <v>2328.5936248603298</v>
+      </c>
+      <c r="L84" s="21">
+        <f>MAX(D81:D84)</f>
+        <v>2349.8838152131202</v>
+      </c>
+      <c r="M84" s="21">
+        <f>L84-K84</f>
+        <v>21.290190352790432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="10">
+        <v>44356</v>
+      </c>
+      <c r="C86" s="9">
+        <v>2269.2716409028999</v>
+      </c>
+      <c r="D86" s="9">
+        <v>2292.5508787461599</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="10">
+        <v>44328</v>
+      </c>
+      <c r="C87" s="9">
+        <v>2267.5799306727399</v>
+      </c>
+      <c r="D87" s="9">
+        <v>2290.8763937346898</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="9">
+        <f>AVERAGE(D86:D87)</f>
+        <v>2291.7136362404249</v>
+      </c>
+      <c r="G87" s="9">
+        <f>_xlfn.STDEV.S(D86:D87)</f>
+        <v>1.1840397066057391</v>
+      </c>
+      <c r="H87" s="9">
+        <f>2*G87</f>
+        <v>2.3680794132114782</v>
+      </c>
+      <c r="I87" s="9">
+        <f>G87/F87</f>
+        <v>5.1666128257986279E-4</v>
+      </c>
+      <c r="J87" s="13">
+        <f>I87</f>
+        <v>5.1666128257986279E-4</v>
+      </c>
+      <c r="K87" s="9">
+        <f>MIN(D86:D87)</f>
+        <v>2290.8763937346898</v>
+      </c>
+      <c r="L87" s="9">
+        <f>MAX(D86:D87)</f>
+        <v>2292.5508787461599</v>
+      </c>
+      <c r="M87" s="9">
+        <f>L87-K87</f>
+        <v>1.6744850114700967</v>
       </c>
     </row>
   </sheetData>

--- a/check sample work/christians samples 2021/TA/Christians TA samples compiled 2021.xlsx
+++ b/check sample work/christians samples 2021/TA/Christians TA samples compiled 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rye-Tech\Documents\R\rye-tech-home\2021-season-summary\check sample work\christians samples 2021\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5C31A4-1BA6-4851-810B-41818613DE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A76E0D-9D16-4DC3-9D8C-4617368EAA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{2A57CFC7-A3BC-4562-B084-879118DEC932}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
@@ -2428,7 +2428,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>47</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>2322.9161702439701</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>58</v>
       </c>
